--- a/ResultadoEleicoesDistritos/BRAGA_VIZELA.xlsx
+++ b/ResultadoEleicoesDistritos/BRAGA_VIZELA.xlsx
@@ -597,64 +597,64 @@
         <v>6531</v>
       </c>
       <c r="H2" t="n">
-        <v>284</v>
+        <v>220</v>
       </c>
       <c r="I2" t="n">
-        <v>669</v>
+        <v>632</v>
       </c>
       <c r="J2" t="n">
-        <v>2706</v>
+        <v>2691</v>
       </c>
       <c r="K2" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L2" t="n">
-        <v>731</v>
+        <v>706</v>
       </c>
       <c r="M2" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N2" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="S2" t="n">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="T2" t="n">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="U2" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V2" t="n">
-        <v>4101</v>
+        <v>4197</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>4203</v>
+        <v>4248</v>
       </c>
       <c r="Y2" t="n">
         <v>6</v>
       </c>
       <c r="Z2" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
